--- a/biology/Botanique/Daucus_sect._Melanoselinum/Daucus_sect._Melanoselinum.xlsx
+++ b/biology/Botanique/Daucus_sect._Melanoselinum/Daucus_sect._Melanoselinum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Daucus sect. Melanoselinum est une section de plantes à fleurs de la famille des Apiaceae et du genre Daucus. Elle ne comprend que deux espèces : Daucus decipiens et Daucus edulis. Deux caractères principaux justifient la proximité de ces deux espèces, et leur distinction dans cette section. Dans la sous-tribu Daucinae, ce sont les deux seules ligneuses et arborescentes, la norme étant dans ce groupe le port herbacé. Les deux sont endémiques de Macaronésie ; plus précisément Daucus decipiens est indigène de Madère et des Açores, Daucus edulis de Madère uniquement.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette section est créée à la suite d'une étude phylogénique par les botanistes polonais Krzysztof Spalik, Aneta Wojewódzka, Łukasz Banasiak et le Français Jean-Pierre Reduron en 2016[1]. Selon Tropicos                                           (7 mars 2021)[2], le genre Melanoselinum est synonyme de Daucus sect. Melanoselinum.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette section est créée à la suite d'une étude phylogénique par les botanistes polonais Krzysztof Spalik, Aneta Wojewódzka, Łukasz Banasiak et le Français Jean-Pierre Reduron en 2016. Selon Tropicos                                           (7 mars 2021), le genre Melanoselinum est synonyme de Daucus sect. Melanoselinum.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GRIN            (7 mars 2021)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GRIN            (7 mars 2021) :
 Daucus decipiens (Schrad. &amp; J. C. Wendl.) Spalik et al.
 Daucus edulis (Lowe) Wojew. et al.</t>
         </is>
